--- a/Roadmap/Eclipse_Arrowhead_roadmap.xlsx
+++ b/Roadmap/Eclipse_Arrowhead_roadmap.xlsx
@@ -37,19 +37,16 @@
     <t>Update plan</t>
   </si>
   <si>
-    <t>v4.5.0</t>
-  </si>
-  <si>
     <t>5.0.0</t>
   </si>
   <si>
     <t>Who</t>
   </si>
   <si>
-    <t>Dec, 2020</t>
-  </si>
-  <si>
-    <t>May, 2021</t>
+    <t>April 2020</t>
+  </si>
+  <si>
+    <t>Oct 2021</t>
   </si>
   <si>
     <t>Dec, 2021</t>
@@ -80,6 +77,12 @@
   </si>
   <si>
     <t>Naming convention updated: Underscore not allowed in device namn. Mandatory meta data. Separated data base. Fix for timestamp bug. Validation of IP addresses: Correct IP, Correct host name, Illegal IP addresses e.g. broadcast or multicast.</t>
+  </si>
+  <si>
+    <t>ServiceRegistry major update, may not be ready for 5.0.0</t>
+  </si>
+  <si>
+    <t>Jan van Deventer</t>
   </si>
   <si>
     <t>Authorisation</t>
@@ -312,9 +315,6 @@
     <t>Ani/Mario</t>
   </si>
   <si>
-    <t>v4.5.0-RC</t>
-  </si>
-  <si>
     <t>OK jerker</t>
   </si>
   <si>
@@ -490,9 +490,9 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -532,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -682,13 +682,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -700,9 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -757,6 +842,30 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1846,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1859,13 +1968,11 @@
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="55.8516" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.35156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="54.8672" style="1" customWidth="1"/>
+    <col min="8" max="8" width="54.8516" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.35156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.3828" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.35156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="58" style="1" customWidth="1"/>
-    <col min="13" max="14" width="20.6719" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="58" style="1" customWidth="1"/>
+    <col min="11" max="12" width="20.6719" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1879,1688 +1986,1542 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="5"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" ht="20.05" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" t="s" s="6">
+      <c r="B2" s="6"/>
+      <c r="C2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="6">
+      <c r="H2" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="I2" t="s" s="6">
+      <c r="I2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" t="s" s="6">
+      <c r="J2" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" t="s" s="9">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" t="s" s="10">
+      <c r="F3" s="7"/>
+      <c r="G3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" t="s" s="9">
+      <c r="H3" s="7"/>
+      <c r="I3" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" t="s" s="9">
+      <c r="J3" s="7"/>
+      <c r="K3" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" t="s" s="9">
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" ht="50.7" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" ht="50.7" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="B4" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="12">
+      <c r="C4" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="D4" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="E4" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="13">
+      <c r="F4" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="G4" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="G4" t="s" s="13">
+      <c r="H4" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="I4" s="13"/>
+      <c r="J4" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="K4" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" ht="62.7" customHeight="1">
-      <c r="A5" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s" s="16">
+      <c r="A5" t="s" s="14">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="17">
+      <c r="B5" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="16">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" t="s" s="17">
+      <c r="E5" s="17"/>
+      <c r="F5" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="14">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s" s="16">
+        <v>41</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" ht="26.7" customHeight="1">
+      <c r="A10" t="s" s="14">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="14">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="15">
         <v>25</v>
       </c>
-      <c r="G5" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" t="s" s="17">
-        <v>27</v>
-      </c>
-      <c r="M5" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" ht="32.05" customHeight="1">
-      <c r="A6" t="s" s="15">
+      <c r="C11" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="14">
+        <v>46</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="19">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="19">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="19">
+        <v>59</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="21">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" t="s" s="16">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s" s="17">
-        <v>32</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="15">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s" s="16">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="15">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s" s="16">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="15">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s" s="16">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s" s="17">
-        <v>40</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" ht="26.7" customHeight="1">
-      <c r="A10" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s" s="16">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" t="s" s="17">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="15">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="15">
-        <v>45</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="15">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="15">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="20">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s" s="17">
-        <v>18</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="20">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s" s="16">
-        <v>50</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" t="s" s="17">
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
+      <c r="A23" t="s" s="21">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s" s="15">
+        <v>65</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s" s="15">
+        <v>68</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="21">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="21">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s" s="15">
+        <v>71</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" t="s" s="16">
+        <v>72</v>
+      </c>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="21">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="19">
+        <v>74</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="21">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="19">
+        <v>76</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" ht="32.05" customHeight="1">
+      <c r="A33" t="s" s="21">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s" s="15">
+        <v>78</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s" s="15">
+        <v>80</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="21">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s" s="15">
+        <v>82</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s" s="15">
+        <v>82</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" t="s" s="16">
+        <v>86</v>
+      </c>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="21">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s" s="15">
+        <v>88</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="21">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H39" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="21">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s" s="15">
+        <v>91</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" t="s" s="16">
+        <v>92</v>
+      </c>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="21">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s" s="15">
+        <v>94</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" t="s" s="16">
+        <v>86</v>
+      </c>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="21">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s" s="15">
+        <v>96</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" t="s" s="21">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s" s="15">
+        <v>98</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" t="s" s="19">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s" s="15">
+        <v>100</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" t="s" s="16">
+        <v>101</v>
+      </c>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" t="s" s="19">
+        <v>102</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H46" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L46" s="17"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s" s="15">
+        <v>104</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H47" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L47" s="17"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" t="s" s="21">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s" s="15">
+        <v>106</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H48" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L48" s="17"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" t="s" s="21">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s" s="15">
+        <v>108</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" t="s" s="21">
+        <v>109</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" t="s" s="21">
+        <v>110</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" t="s" s="19">
+        <v>111</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" ht="32.05" customHeight="1">
+      <c r="A54" t="s" s="21">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F54" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="G54" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H54" t="s" s="16">
+        <v>114</v>
+      </c>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" t="s" s="16">
+        <v>86</v>
+      </c>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" t="s" s="21">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s" s="15">
+        <v>29</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="F55" t="s" s="16">
+        <v>113</v>
+      </c>
+      <c r="G55" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="H55" t="s" s="16">
+        <v>116</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" t="s" s="16">
+        <v>117</v>
+      </c>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" ht="38.7" customHeight="1">
+      <c r="A56" t="s" s="21">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s" s="15">
+        <v>119</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="J56" t="s" s="16">
+        <v>120</v>
+      </c>
+      <c r="K56" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L56" s="17"/>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" ht="20.05" customHeight="1">
+      <c r="A58" t="s" s="19">
+        <v>121</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" ht="32.05" customHeight="1">
+      <c r="A59" t="s" s="21">
+        <v>122</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25"/>
+      <c r="I59" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="J59" t="s" s="16">
+        <v>123</v>
+      </c>
+      <c r="K59" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" ht="32.05" customHeight="1">
+      <c r="A60" t="s" s="21">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s" s="15">
+        <v>125</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="27"/>
+      <c r="I60" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="J60" t="s" s="16">
+        <v>126</v>
+      </c>
+      <c r="K60" t="s" s="16">
+        <v>127</v>
+      </c>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" ht="20.05" customHeight="1">
+      <c r="A61" t="s" s="21">
+        <v>128</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="27"/>
+      <c r="I61" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="J61" t="s" s="16">
+        <v>129</v>
+      </c>
+      <c r="K61" t="s" s="16">
+        <v>130</v>
+      </c>
+      <c r="L61" s="17"/>
+    </row>
+    <row r="62" ht="20.05" customHeight="1">
+      <c r="A62" t="s" s="21">
+        <v>131</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29"/>
+      <c r="I62" t="s" s="16">
+        <v>132</v>
+      </c>
+      <c r="J62" t="s" s="16">
+        <v>133</v>
+      </c>
+      <c r="K62" t="s" s="16">
+        <v>130</v>
+      </c>
+      <c r="L62" s="17"/>
+    </row>
+    <row r="63" ht="20.05" customHeight="1">
+      <c r="A63" s="20"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+    </row>
+    <row r="64" ht="20.05" customHeight="1">
+      <c r="A64" t="s" s="19">
+        <v>134</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+    </row>
+    <row r="65" ht="20.05" customHeight="1">
+      <c r="A65" t="s" s="21">
+        <v>135</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
+      <c r="I65" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="J65" t="s" s="16">
+        <v>136</v>
+      </c>
+      <c r="K65" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" ht="20.05" customHeight="1">
+      <c r="A66" t="s" s="21">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s" s="15">
+        <v>25</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" t="s" s="16">
+        <v>138</v>
+      </c>
+      <c r="J66" t="s" s="16">
+        <v>139</v>
+      </c>
+      <c r="K66" t="s" s="16">
+        <v>101</v>
+      </c>
+      <c r="L66" s="17"/>
+    </row>
+    <row r="67" ht="20.05" customHeight="1">
+      <c r="A67" t="s" s="21">
+        <v>140</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+    </row>
+    <row r="68" ht="20.05" customHeight="1">
+      <c r="A68" s="30"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+    </row>
+    <row r="69" ht="20.05" customHeight="1">
+      <c r="A69" t="s" s="19">
+        <v>141</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+    </row>
+    <row r="70" ht="20.05" customHeight="1">
+      <c r="A70" t="s" s="21">
+        <v>142</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" t="s" s="16">
+        <v>143</v>
+      </c>
+      <c r="J70" s="17"/>
+      <c r="K70" t="s" s="16">
         <v>51</v>
       </c>
-      <c r="F17" t="s" s="17">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="20">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s" s="16">
-        <v>54</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s" s="17">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="20">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s" s="16">
-        <v>54</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s" s="17">
-        <v>57</v>
-      </c>
-      <c r="G19" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="20">
-        <v>58</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="22">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s" s="16">
-        <v>60</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H22" t="s" s="17">
-        <v>62</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" t="s" s="22">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s" s="16">
-        <v>64</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="F23" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="22">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s" s="16">
-        <v>67</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H24" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="22">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="22">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s" s="16">
-        <v>70</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H26" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" t="s" s="17">
-        <v>71</v>
-      </c>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="22">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H27" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="20">
-        <v>73</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="B30" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="20">
-        <v>75</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" ht="32.05" customHeight="1">
-      <c r="A33" t="s" s="22">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s" s="16">
-        <v>77</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H33" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="22">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s" s="16">
-        <v>79</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H34" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="22">
-        <v>80</v>
-      </c>
-      <c r="B35" t="s" s="16">
-        <v>81</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H35" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" t="s" s="17">
-        <v>82</v>
-      </c>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="22">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s" s="16">
-        <v>81</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H36" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" t="s" s="17">
-        <v>82</v>
-      </c>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="22">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s" s="16">
-        <v>60</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H37" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="22">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s" s="16">
-        <v>87</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H38" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="22">
-        <v>88</v>
-      </c>
-      <c r="B39" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H39" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="N39" s="18"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="22">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s" s="16">
-        <v>90</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="17"/>
-      <c r="I40" t="s" s="17">
-        <v>91</v>
-      </c>
-      <c r="J40" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" t="s" s="17">
-        <v>92</v>
-      </c>
-      <c r="N40" s="18"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="22">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s" s="16">
-        <v>94</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="17"/>
-      <c r="I41" t="s" s="17">
-        <v>91</v>
-      </c>
-      <c r="J41" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="N41" s="18"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="22">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s" s="16">
-        <v>96</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="22">
-        <v>97</v>
-      </c>
-      <c r="B43" t="s" s="16">
-        <v>98</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H43" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="20">
-        <v>99</v>
-      </c>
-      <c r="B44" t="s" s="16">
-        <v>100</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H44" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" t="s" s="17">
-        <v>101</v>
-      </c>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="20">
-        <v>102</v>
-      </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H46" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N46" s="18"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="22">
-        <v>103</v>
-      </c>
-      <c r="B47" t="s" s="16">
-        <v>104</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H47" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="22">
-        <v>105</v>
-      </c>
-      <c r="B48" t="s" s="16">
-        <v>106</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H48" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N48" s="18"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="22">
-        <v>107</v>
-      </c>
-      <c r="B49" t="s" s="16">
-        <v>108</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H49" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N49" s="18"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="22">
-        <v>109</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H50" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N50" s="18"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="22">
-        <v>110</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="20">
-        <v>111</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" ht="32.05" customHeight="1">
-      <c r="A54" t="s" s="22">
-        <v>112</v>
-      </c>
-      <c r="B54" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="F54" t="s" s="17">
-        <v>113</v>
-      </c>
-      <c r="G54" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H54" t="s" s="17">
-        <v>114</v>
-      </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" t="s" s="17">
-        <v>85</v>
-      </c>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="22">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s" s="16">
-        <v>28</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="F55" t="s" s="17">
-        <v>113</v>
-      </c>
-      <c r="G55" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H55" t="s" s="17">
-        <v>116</v>
-      </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" t="s" s="17">
-        <v>117</v>
-      </c>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" ht="38.7" customHeight="1">
-      <c r="A56" t="s" s="22">
-        <v>118</v>
-      </c>
-      <c r="B56" t="s" s="16">
-        <v>119</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H56" t="s" s="17">
-        <v>120</v>
-      </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N56" s="18"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="20">
-        <v>121</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" ht="32.05" customHeight="1">
-      <c r="A59" t="s" s="22">
-        <v>122</v>
-      </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H59" t="s" s="17">
-        <v>123</v>
-      </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N59" s="18"/>
-    </row>
-    <row r="60" ht="32.05" customHeight="1">
-      <c r="A60" t="s" s="22">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s" s="16">
-        <v>125</v>
-      </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H60" t="s" s="17">
-        <v>126</v>
-      </c>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" t="s" s="17">
-        <v>127</v>
-      </c>
-      <c r="N60" s="18"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="22">
-        <v>128</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H61" t="s" s="17">
-        <v>129</v>
-      </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" t="s" s="17">
-        <v>130</v>
-      </c>
-      <c r="N61" s="18"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="22">
-        <v>131</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" t="s" s="17">
-        <v>132</v>
-      </c>
-      <c r="H62" t="s" s="17">
-        <v>133</v>
-      </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" t="s" s="17">
-        <v>130</v>
-      </c>
-      <c r="N62" s="18"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="20">
-        <v>134</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="22">
-        <v>135</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="H65" t="s" s="17">
-        <v>136</v>
-      </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="N65" s="18"/>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="22">
-        <v>137</v>
-      </c>
-      <c r="B66" t="s" s="16">
-        <v>24</v>
-      </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="H66" t="s" s="17">
-        <v>139</v>
-      </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" t="s" s="17">
-        <v>101</v>
-      </c>
-      <c r="N66" s="18"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="22">
-        <v>140</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" s="23"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-    </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="20">
-        <v>141</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="22">
-        <v>142</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" t="s" s="17">
-        <v>143</v>
-      </c>
-      <c r="L70" s="18"/>
-      <c r="M70" t="s" s="17">
-        <v>50</v>
-      </c>
-      <c r="N70" s="18"/>
+      <c r="L70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
